--- a/ElectrodeMap.xlsx
+++ b/ElectrodeMap.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Matlab\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="10188"/>
   </bookViews>
   <sheets>
     <sheet name="EMG_NG" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -357,9 +356,9 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>47</v>
       </c>
@@ -400,7 +399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>52</v>
       </c>
@@ -441,7 +440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -482,7 +481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>56</v>
       </c>
@@ -523,7 +522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>54</v>
       </c>
@@ -564,7 +563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -605,7 +604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>58</v>
       </c>
@@ -646,7 +645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>61</v>
       </c>
@@ -687,7 +686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>62</v>
       </c>
@@ -726,7 +725,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>63</v>
       </c>
@@ -769,16 +768,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>